--- a/Final-GPT.xlsx
+++ b/Final-GPT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janaksunil/Documents/Projects/CareHealth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4178AC-5CA9-024C-AF3E-092C232FB835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEE8C25-A26E-AB4C-8A80-83CD039751C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="165">
   <si>
     <t>Test</t>
   </si>
@@ -58,18 +58,9 @@
     <t>FASTING BLOOD SUGAR</t>
   </si>
   <si>
-    <t>URINE SUGAR (FASTING)</t>
-  </si>
-  <si>
     <t>POST PRANDIAL BLOOD SUGAR</t>
   </si>
   <si>
-    <t>URINE SUGAR (POST PRANDIAL)</t>
-  </si>
-  <si>
-    <t>BLOOD UREA</t>
-  </si>
-  <si>
     <t>SERUM CREATININE</t>
   </si>
   <si>
@@ -178,9 +169,6 @@
     <t>E.S.R.</t>
   </si>
   <si>
-    <t>URINE ALBUMIN</t>
-  </si>
-  <si>
     <t>PUS CELLS</t>
   </si>
   <si>
@@ -385,12 +373,6 @@
     <t>Measures blood glucose levels after eating to monitor glucose handling by the body.</t>
   </si>
   <si>
-    <t>Checks for glucose in urine after a meal, which can indicate diabetes if present.</t>
-  </si>
-  <si>
-    <t>Assesses kidney function by measuring the amount of urea nitrogen in the blood.</t>
-  </si>
-  <si>
     <t>Measures kidney function by assessing the level of creatinine in the blood.</t>
   </si>
   <si>
@@ -499,9 +481,6 @@
     <t>Erythrocyte sedimentation rate, measures how quickly red blood cells settle in a test tube in one hour, indicating inflammation.</t>
   </si>
   <si>
-    <t>Measures albumin in urine, can indicate kidney damage.</t>
-  </si>
-  <si>
     <t>Indicates infection if found in urine or other body fluids.</t>
   </si>
   <si>
@@ -533,6 +512,9 @@
   </si>
   <si>
     <t>Your levels have decreased; consider discussing with a healthcare provider as they may be borderline or out of range for your age.</t>
+  </si>
+  <si>
+    <t>SUGAR (FASTING)</t>
   </si>
 </sst>
 </file>
@@ -900,13 +882,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="77.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -945,7 +930,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -954,13 +939,13 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -969,10 +954,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K2">
         <v>8.75</v>
@@ -980,7 +965,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>102.7</v>
@@ -989,13 +974,13 @@
         <v>93.1</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1004,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -1015,7 +1000,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>171.1</v>
@@ -1024,13 +1009,13 @@
         <v>168.5</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -1039,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1050,7 +1035,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>57.9</v>
@@ -1059,13 +1044,13 @@
         <v>51.8</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1074,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1094,13 +1079,13 @@
         <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -1109,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1120,7 +1105,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1129,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1144,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1155,7 +1140,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>88</v>
@@ -1164,13 +1149,13 @@
         <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1179,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1190,22 +1175,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1214,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1225,22 +1210,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>6.8</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1249,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1260,22 +1245,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.99</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>1.23</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1284,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1295,22 +1280,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>5.0999999999999996</v>
+        <v>113.2</v>
       </c>
       <c r="C12">
-        <v>6.8</v>
+        <v>116.7</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1319,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1330,22 +1315,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>11.6</v>
       </c>
       <c r="C13">
-        <v>76</v>
+        <v>15.2</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -1354,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1365,22 +1350,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>113.2</v>
+        <v>2.96</v>
       </c>
       <c r="C14">
-        <v>116.7</v>
+        <v>3.25</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1389,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1400,22 +1385,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>11.6</v>
+        <v>1.8</v>
       </c>
       <c r="C15">
-        <v>15.2</v>
+        <v>1.8</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1424,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1435,22 +1420,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>2.96</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C16">
-        <v>3.25</v>
+        <v>0.53</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1459,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1470,22 +1455,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>1.8</v>
+        <v>0.13</v>
       </c>
       <c r="C17">
-        <v>1.8</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1494,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1505,22 +1490,22 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>0.56999999999999995</v>
+        <v>0.44</v>
       </c>
       <c r="C18">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1529,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1540,22 +1525,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.13</v>
+        <v>202.3</v>
       </c>
       <c r="C19">
-        <v>0.14000000000000001</v>
+        <v>205.3</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1564,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1575,22 +1560,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.44</v>
+        <v>6.72</v>
       </c>
       <c r="C20">
-        <v>0.39</v>
+        <v>7.39</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1599,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1610,22 +1595,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>202.3</v>
+        <v>4.2</v>
       </c>
       <c r="C21">
-        <v>205.3</v>
+        <v>4.5</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1634,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1645,22 +1630,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>6.72</v>
+        <v>2.52</v>
       </c>
       <c r="C22">
-        <v>7.39</v>
+        <v>2.89</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1669,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1680,22 +1665,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>4.2</v>
+        <v>1.67</v>
       </c>
       <c r="C23">
-        <v>4.5</v>
+        <v>1.56</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1704,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J23" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1715,22 +1700,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>2.52</v>
+        <v>14.2</v>
       </c>
       <c r="C24">
-        <v>2.89</v>
+        <v>15.1</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1739,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J24" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1750,22 +1735,22 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>1.67</v>
+        <v>12.2</v>
       </c>
       <c r="C25">
-        <v>1.56</v>
+        <v>11.5</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1774,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J25" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1785,22 +1770,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>14.2</v>
+        <v>5.5</v>
       </c>
       <c r="C26">
-        <v>15.1</v>
+        <v>5.5</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1809,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J26" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1820,22 +1805,22 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>12.2</v>
+        <v>111</v>
       </c>
       <c r="C27">
-        <v>11.5</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1844,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J27" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1855,19 +1840,19 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>5.5</v>
+        <v>15.4</v>
       </c>
       <c r="D28" t="s">
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
         <v>60</v>
@@ -1879,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J28" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1890,22 +1875,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>111</v>
+        <v>5.3</v>
       </c>
       <c r="C29">
-        <v>114</v>
+        <v>5.36</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1914,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J29" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1925,34 +1910,34 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>7400</v>
       </c>
       <c r="C30">
-        <v>15.4</v>
+        <v>7900</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1960,22 +1945,22 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>5.3</v>
+        <v>62</v>
       </c>
       <c r="C31">
-        <v>5.36</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1984,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J31" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1995,34 +1980,34 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>7400</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>7900</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J32" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2030,22 +2015,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -2054,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J33" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2065,22 +2050,22 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -2089,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J34" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2100,22 +2085,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -2124,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J35" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2135,22 +2120,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>336000</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>348000</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -2159,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J36" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2170,22 +2155,22 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>45.4</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -2194,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J37" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2205,22 +2190,22 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>336000</v>
+        <v>85.6</v>
       </c>
       <c r="C38">
-        <v>348000</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -2229,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J38" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2240,22 +2225,22 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>45.4</v>
+        <v>28.3</v>
       </c>
       <c r="C39">
-        <v>46</v>
+        <v>28.73</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -2264,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J39" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2275,22 +2260,22 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>85.6</v>
+        <v>33</v>
       </c>
       <c r="C40">
-        <v>86</v>
+        <v>33.5</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -2299,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J40" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2313,19 +2298,19 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>28.3</v>
+        <v>1.5</v>
       </c>
       <c r="C41">
-        <v>28.73</v>
+        <v>2.5</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -2334,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J41" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2348,19 +2333,19 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>33.5</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -2369,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J42" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2380,22 +2365,22 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -2404,10 +2389,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J43" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2415,22 +2400,22 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>1.5</v>
+        <v>32.1</v>
       </c>
       <c r="C44">
-        <v>2.5</v>
+        <v>31.8</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -2439,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J44" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2450,22 +2435,22 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>679.2</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>382.7</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F45" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -2474,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
+        <v>157</v>
+      </c>
+      <c r="J45" t="s">
         <v>161</v>
-      </c>
-      <c r="J45" t="s">
-        <v>167</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2485,22 +2470,22 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>2.11</v>
+        <v>113.5</v>
       </c>
       <c r="C46">
-        <v>1.9</v>
+        <v>173.3</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -2509,123 +2494,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J46" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47">
-        <v>32.1</v>
-      </c>
-      <c r="C47">
-        <v>31.8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>163</v>
-      </c>
-      <c r="J47" t="s">
-        <v>168</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48">
-        <v>679.2</v>
-      </c>
-      <c r="C48">
-        <v>382.7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" t="s">
-        <v>115</v>
-      </c>
-      <c r="F48" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="s">
-        <v>164</v>
-      </c>
-      <c r="J48" t="s">
-        <v>168</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49">
-        <v>113.5</v>
-      </c>
-      <c r="C49">
-        <v>173.3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" t="s">
-        <v>116</v>
-      </c>
-      <c r="F49" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="s">
-        <v>165</v>
-      </c>
-      <c r="J49" t="s">
-        <v>166</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K49">
-    <sortCondition descending="1" ref="K2:K49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K46">
+    <sortCondition descending="1" ref="K2:K46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Final-GPT.xlsx
+++ b/Final-GPT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janaksunil/Documents/Projects/CareHealth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEE8C25-A26E-AB4C-8A80-83CD039751C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799E13B0-3CA3-0D4F-9A8E-A38119435E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,9 +367,6 @@
     <t>Measures blood glucose levels after a period of fasting and is a common test for diabetes.</t>
   </si>
   <si>
-    <t>Detects glucose in urine after fasting, used to help diagnose diabetes.</t>
-  </si>
-  <si>
     <t>Measures blood glucose levels after eating to monitor glucose handling by the body.</t>
   </si>
   <si>
@@ -481,12 +478,6 @@
     <t>Erythrocyte sedimentation rate, measures how quickly red blood cells settle in a test tube in one hour, indicating inflammation.</t>
   </si>
   <si>
-    <t>Indicates infection if found in urine or other body fluids.</t>
-  </si>
-  <si>
-    <t>Measures the number of epithelial cells in urine, high levels can indicate an infection or other conditions.</t>
-  </si>
-  <si>
     <t>Thyroid-stimulating hormone, important for diagnosing thyroid disorders.</t>
   </si>
   <si>
@@ -515,6 +506,15 @@
   </si>
   <si>
     <t>SUGAR (FASTING)</t>
+  </si>
+  <si>
+    <t>Detects glucose in test after fasting, used to help diagnose diabetes.</t>
+  </si>
+  <si>
+    <t>Indicates infection if found in test or other body fluids.</t>
+  </si>
+  <si>
+    <t>Measures the number of epithelial cells in test, high levels can indicate an infection or other conditions.</t>
   </si>
 </sst>
 </file>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -954,10 +954,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K2">
         <v>8.75</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -1024,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1097,7 +1097,7 @@
         <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1129,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1724,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1899,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1934,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1969,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2074,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2109,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2179,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J39" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2319,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="J41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2354,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="J42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2389,10 +2389,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2424,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J45" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J46" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K46">
         <v>0</v>

--- a/Final-GPT.xlsx
+++ b/Final-GPT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janaksunil/Documents/Projects/CareHealth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799E13B0-3CA3-0D4F-9A8E-A38119435E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC43B8EA-2B72-1942-8BF9-9EFE7C16C60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>SERUM CREATININE</t>
   </si>
   <si>
-    <t>SERUM URIC ACID</t>
-  </si>
-  <si>
     <t>TOTAL CHOLESTEROL</t>
   </si>
   <si>
@@ -373,9 +370,6 @@
     <t>Measures kidney function by assessing the level of creatinine in the blood.</t>
   </si>
   <si>
-    <t>Measures the level of uric acid in the blood, high levels can indicate gout or kidney issues.</t>
-  </si>
-  <si>
     <t>Measures all types of cholesterol in the blood to assess heart disease risk.</t>
   </si>
   <si>
@@ -515,6 +509,12 @@
   </si>
   <si>
     <t>Measures the number of epithelial cells in test, high levels can indicate an infection or other conditions.</t>
+  </si>
+  <si>
+    <t>SERUM C ACID</t>
+  </si>
+  <si>
+    <t>Measures the level of c acid in the blood, high levels can indicate gout or kidney issues.</t>
   </si>
 </sst>
 </file>
@@ -885,7 +885,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -930,7 +930,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -939,13 +939,13 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -954,10 +954,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K2">
         <v>8.75</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>102.7</v>
@@ -974,13 +974,13 @@
         <v>93.1</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>171.1</v>
@@ -1009,13 +1009,13 @@
         <v>168.5</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -1024,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>57.9</v>
@@ -1044,13 +1044,13 @@
         <v>51.8</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1079,13 +1079,13 @@
         <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1129,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>1.23</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="B10">
         <v>5.0999999999999996</v>
@@ -1219,13 +1219,13 @@
         <v>6.8</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="J10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>58</v>
@@ -1254,13 +1254,13 @@
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>113.2</v>
@@ -1289,13 +1289,13 @@
         <v>116.7</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>11.6</v>
@@ -1324,13 +1324,13 @@
         <v>15.2</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>2.96</v>
@@ -1359,13 +1359,13 @@
         <v>3.25</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>1.8</v>
@@ -1394,13 +1394,13 @@
         <v>1.8</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>0.56999999999999995</v>
@@ -1429,13 +1429,13 @@
         <v>0.53</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0.13</v>
@@ -1464,13 +1464,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0.44</v>
@@ -1499,13 +1499,13 @@
         <v>0.39</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>202.3</v>
@@ -1534,13 +1534,13 @@
         <v>205.3</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>6.72</v>
@@ -1569,13 +1569,13 @@
         <v>7.39</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>4.2</v>
@@ -1604,13 +1604,13 @@
         <v>4.5</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>2.52</v>
@@ -1639,13 +1639,13 @@
         <v>2.89</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>1.67</v>
@@ -1674,13 +1674,13 @@
         <v>1.56</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>14.2</v>
@@ -1709,13 +1709,13 @@
         <v>15.1</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1724,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>12.2</v>
@@ -1744,13 +1744,13 @@
         <v>11.5</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>5.5</v>
@@ -1779,13 +1779,13 @@
         <v>5.5</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>111</v>
@@ -1814,13 +1814,13 @@
         <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>15</v>
@@ -1849,13 +1849,13 @@
         <v>15.4</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>5.3</v>
@@ -1884,13 +1884,13 @@
         <v>5.36</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1899,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>7400</v>
@@ -1919,13 +1919,13 @@
         <v>7900</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -1934,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>62</v>
@@ -1954,13 +1954,13 @@
         <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1969,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1989,13 +1989,13 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2024,13 +2024,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>29</v>
@@ -2059,13 +2059,13 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -2074,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -2094,13 +2094,13 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -2109,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>336000</v>
@@ -2129,13 +2129,13 @@
         <v>348000</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>45.4</v>
@@ -2164,13 +2164,13 @@
         <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -2179,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>85.6</v>
@@ -2199,13 +2199,13 @@
         <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>28.3</v>
@@ -2234,13 +2234,13 @@
         <v>28.73</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>33</v>
@@ -2269,13 +2269,13 @@
         <v>33.5</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>1.5</v>
@@ -2304,13 +2304,13 @@
         <v>2.5</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -2319,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2339,13 +2339,13 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -2354,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>2.11</v>
@@ -2374,13 +2374,13 @@
         <v>1.9</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -2389,10 +2389,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>32.1</v>
@@ -2409,13 +2409,13 @@
         <v>31.8</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -2424,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>679.2</v>
@@ -2444,13 +2444,13 @@
         <v>382.7</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>113.5</v>
@@ -2479,13 +2479,13 @@
         <v>173.3</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K46">
         <v>0</v>
